--- a/packages/gatchaman-xls/test/source.xlsx
+++ b/packages/gatchaman-xls/test/source.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/src/github.com/takanopontaro/node-xlcapture/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/src/github.com/takanopontaro/gatchaman/packages/gatchaman-xls/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>_shot</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>ぶどう</t>
+  </si>
+  <si>
+    <t>_head</t>
+  </si>
+  <si>
+    <t>_body</t>
+  </si>
+  <si>
+    <t>_foot</t>
   </si>
 </sst>
 </file>
@@ -425,7 +434,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -433,11 +443,12 @@
   <cols>
     <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,80 +456,116 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
     </row>
